--- a/data/trans_orig/P16A99-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A99-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEAF25D5-4A34-476C-A924-4A9CEE669E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E77CB675-00EE-452D-9204-94CC3FF9C79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{985277A0-C376-48FD-9248-59D78B41446B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{780D1334-8267-4764-B9AD-DD42458F9DC9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -155,42 +155,36 @@
     <t>0,66%</t>
   </si>
   <si>
-    <t>2,2%</t>
+    <t>1,77%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,07%</t>
+    <t>1,14%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>97,8%</t>
+    <t>98,23%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>98,93%</t>
+    <t>98,86%</t>
   </si>
   <si>
     <t>55/64</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
     <t>1,92%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>98,23%</t>
-  </si>
-  <si>
     <t>98,08%</t>
   </si>
   <si>
@@ -230,301 +224,313 @@
     <t>0,03%</t>
   </si>
   <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2012 (Tasa respuesta: 40,03%)</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2015 (Tasa respuesta: 43,2%)</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
   </si>
   <si>
     <t>99,84%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2012 (Tasa respuesta: 40,03%)</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2015 (Tasa respuesta: 43,2%)</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
     <t>99,95%</t>
   </si>
   <si>
-    <t>99,77%</t>
+    <t>99,75%</t>
   </si>
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2023 (Tasa respuesta: 35,25%)</t>
@@ -552,12 +558,6 @@
   </si>
   <si>
     <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
   </si>
   <si>
     <t>0,97%</t>
@@ -1011,7 +1011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66BA551-BAA4-461B-9857-02A56C59FFF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B75E0F-3323-4BF1-B481-4011981616C4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1761,37 +1761,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1809,7 +1809,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -1824,7 +1824,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -1839,7 +1839,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1916,37 +1916,37 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,7 +1964,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -1979,7 +1979,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -1994,7 +1994,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -2071,7 +2071,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2080,13 +2080,13 @@
         <v>978</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2095,13 +2095,13 @@
         <v>978</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,7 +2119,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -2131,10 +2131,10 @@
         <v>1399722</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>17</v>
@@ -2146,10 +2146,10 @@
         <v>3347384</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>17</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2230,7 +2230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5ECE60-7CD1-40BB-B005-1A7F87FCE7F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD460EC6-C2B5-45CE-A5F8-CAF11DF5D270}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2247,7 +2247,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2360,7 +2360,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2390,7 +2390,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,7 +2408,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2423,7 +2423,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2438,7 +2438,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2515,37 +2515,37 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,7 +2563,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2578,7 +2578,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2593,7 +2593,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2670,37 +2670,37 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,7 +2718,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2733,7 +2733,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2748,7 +2748,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2825,7 +2825,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,7 +2873,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -2888,7 +2888,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2903,7 +2903,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -2974,13 +2974,13 @@
         <v>1048</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2989,13 +2989,13 @@
         <v>1078</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3004,13 +3004,13 @@
         <v>2126</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,10 +3025,10 @@
         <v>106017</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -3040,10 +3040,10 @@
         <v>76073</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -3055,10 +3055,10 @@
         <v>182090</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3135,7 +3135,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3144,13 +3144,13 @@
         <v>1100</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -3159,13 +3159,13 @@
         <v>1100</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,7 +3183,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -3195,10 +3195,10 @@
         <v>40554</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -3210,10 +3210,10 @@
         <v>92281</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>17</v>
@@ -3284,13 +3284,13 @@
         <v>1048</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3299,13 +3299,13 @@
         <v>2177</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -3314,13 +3314,13 @@
         <v>3225</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,10 +3335,10 @@
         <v>1696771</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>17</v>
@@ -3350,10 +3350,10 @@
         <v>1058638</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>17</v>
@@ -3365,10 +3365,10 @@
         <v>2755409</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>120</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3449,7 +3449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92647992-C4A1-4743-A9E0-1D47DCFF2E76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAC4128-CFC2-45C3-A526-B583ADAD6975}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3579,37 +3579,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,7 +3627,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3642,7 +3642,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3657,7 +3657,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3734,7 +3734,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3764,7 +3764,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,7 +3782,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3812,7 +3812,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3889,7 +3889,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,7 +3937,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3952,7 +3952,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3967,7 +3967,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4044,37 +4044,37 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,7 +4092,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4107,7 +4107,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4122,7 +4122,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -4199,37 +4199,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,7 +4247,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -4262,7 +4262,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -4277,7 +4277,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4348,28 +4348,28 @@
         <v>1332</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4378,13 +4378,13 @@
         <v>1333</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,10 +4399,10 @@
         <v>76755</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -4417,7 +4417,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -4429,10 +4429,10 @@
         <v>127344</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>17</v>
@@ -4503,28 +4503,28 @@
         <v>1332</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -4557,7 +4557,7 @@
         <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>17</v>
@@ -4572,7 +4572,7 @@
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
@@ -4584,10 +4584,10 @@
         <v>2950288</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>17</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4668,7 +4668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06826149-8071-4045-A08D-6C086E8716B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040B868A-F9BF-4289-BDFD-0898707E0649}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4685,7 +4685,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4798,7 +4798,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4813,7 +4813,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4828,7 +4828,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,7 +4846,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4861,7 +4861,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4876,7 +4876,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4953,7 +4953,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4968,7 +4968,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,7 +5001,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -5016,7 +5016,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -5031,7 +5031,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -5108,7 +5108,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,7 +5156,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -5171,7 +5171,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -5186,7 +5186,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -5293,7 +5293,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,7 +5341,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -5448,7 +5448,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,7 +5496,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5758,7 +5758,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,7 +5806,7 @@
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A99-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A99-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E77CB675-00EE-452D-9204-94CC3FF9C79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D43F2B3B-CB39-4F2D-A0C8-5BFD8099B4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{780D1334-8267-4764-B9AD-DD42458F9DC9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C187C05E-35DF-4A93-AA4D-F872EDC2CA9A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="189">
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2007 (Tasa respuesta: 49,81%)</t>
   </si>
@@ -155,36 +155,42 @@
     <t>0,66%</t>
   </si>
   <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
   </si>
   <si>
     <t>98,23%</t>
   </si>
   <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
     <t>98,08%</t>
   </si>
   <si>
@@ -224,9 +230,6 @@
     <t>0,03%</t>
   </si>
   <si>
-    <t>0,15%</t>
-  </si>
-  <si>
     <t>99,9%</t>
   </si>
   <si>
@@ -239,9 +242,6 @@
     <t>99,97%</t>
   </si>
   <si>
-    <t>99,85%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
@@ -311,37 +311,37 @@
     <t>0,98%</t>
   </si>
   <si>
-    <t>4,96%</t>
+    <t>4,99%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>8,21%</t>
+    <t>7,68%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>4,06%</t>
+    <t>3,96%</t>
   </si>
   <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>95,04%</t>
+    <t>95,01%</t>
   </si>
   <si>
     <t>98,6%</t>
   </si>
   <si>
-    <t>91,79%</t>
+    <t>92,32%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>95,94%</t>
+    <t>96,04%</t>
   </si>
   <si>
     <t>3,82%</t>
@@ -350,10 +350,10 @@
     <t>2,64%</t>
   </si>
   <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
   </si>
   <si>
     <t>96,18%</t>
@@ -362,57 +362,63 @@
     <t>97,36%</t>
   </si>
   <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
   </si>
   <si>
     <t>0,06%</t>
   </si>
   <si>
+    <t>0,31%</t>
+  </si>
+  <si>
     <t>0,21%</t>
   </si>
   <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2016 (Tasa respuesta: 43,2%)</t>
+  </si>
+  <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
   </si>
   <si>
     <t>99,38%</t>
   </si>
   <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2015 (Tasa respuesta: 43,2%)</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
     <t>99,17%</t>
   </si>
   <si>
@@ -476,7 +482,7 @@
     <t>1,71%</t>
   </si>
   <si>
-    <t>8,9%</t>
+    <t>9,43%</t>
   </si>
   <si>
     <t>4,34%</t>
@@ -485,13 +491,13 @@
     <t>1,04%</t>
   </si>
   <si>
-    <t>5,26%</t>
+    <t>5,19%</t>
   </si>
   <si>
     <t>98,29%</t>
   </si>
   <si>
-    <t>91,1%</t>
+    <t>90,57%</t>
   </si>
   <si>
     <t>95,66%</t>
@@ -500,7 +506,7 @@
     <t>98,96%</t>
   </si>
   <si>
-    <t>94,74%</t>
+    <t>94,81%</t>
   </si>
   <si>
     <t>0,08%</t>
@@ -515,49 +521,49 @@
     <t>0,05%</t>
   </si>
   <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2023 (Tasa respuesta: 35,25%)</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
     <t>99,75%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2023 (Tasa respuesta: 35,25%)</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
   </si>
   <si>
     <t>0,97%</t>
@@ -1011,7 +1017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B75E0F-3323-4BF1-B481-4011981616C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A2CDDF-FD4F-4C74-96AD-69E555FEF2DD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1761,7 +1767,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1776,7 +1782,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1791,7 +1797,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1809,7 +1815,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -1824,7 +1830,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -1839,7 +1845,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -1898,7 +1904,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1916,7 +1922,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1931,7 +1937,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -1946,7 +1952,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,7 +1970,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -1979,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -1994,7 +2000,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -2071,7 +2077,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2080,13 +2086,13 @@
         <v>978</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2095,13 +2101,13 @@
         <v>978</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -2131,10 +2137,10 @@
         <v>1399722</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>17</v>
@@ -2146,10 +2152,10 @@
         <v>3347384</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>17</v>
@@ -2230,7 +2236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD460EC6-C2B5-45CE-A5F8-CAF11DF5D270}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A246DA9-E90D-4D25-84B2-D01A5FFE8C08}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2390,7 +2396,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2438,7 +2444,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3117,7 +3123,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3290,7 +3296,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3299,13 +3305,13 @@
         <v>2177</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -3314,13 +3320,13 @@
         <v>3225</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,7 +3344,7 @@
         <v>115</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>17</v>
@@ -3350,10 +3356,10 @@
         <v>1058638</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>17</v>
@@ -3365,10 +3371,10 @@
         <v>2755409</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>120</v>
@@ -3449,7 +3455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAC4128-CFC2-45C3-A526-B583ADAD6975}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E6B863-7B85-459A-AF2E-A3D7A233DFD5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3579,7 +3585,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3594,7 +3600,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3609,7 +3615,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,7 +3633,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3642,7 +3648,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3657,7 +3663,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3734,7 +3740,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3782,7 +3788,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3889,7 +3895,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3919,7 +3925,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,7 +3943,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3967,7 +3973,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4044,7 +4050,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4059,7 +4065,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4074,7 +4080,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4092,13 @@
         <v>283</v>
       </c>
       <c r="D14" s="7">
-        <v>312667</v>
+        <v>312668</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4107,7 +4113,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4122,7 +4128,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -4137,7 +4143,7 @@
         <v>283</v>
       </c>
       <c r="D15" s="7">
-        <v>312667</v>
+        <v>312668</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4199,7 +4205,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4214,7 +4220,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4229,7 +4235,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,7 +4253,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -4262,7 +4268,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -4277,7 +4283,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -4336,7 +4342,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4348,13 +4354,13 @@
         <v>1332</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4369,7 +4375,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4378,13 +4384,13 @@
         <v>1333</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,10 +4405,10 @@
         <v>76755</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -4417,7 +4423,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -4429,10 +4435,10 @@
         <v>127344</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>17</v>
@@ -4503,13 +4509,13 @@
         <v>1332</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4524,7 +4530,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -4533,13 +4539,13 @@
         <v>1332</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,10 +4560,10 @@
         <v>1704362</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>17</v>
@@ -4572,7 +4578,7 @@
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
@@ -4584,10 +4590,10 @@
         <v>2950288</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>17</v>
@@ -4668,7 +4674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040B868A-F9BF-4289-BDFD-0898707E0649}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071C90E2-59DD-4C41-B0F3-374991ADDDA4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4953,7 +4959,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5001,7 +5007,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -5138,7 +5144,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,7 +5192,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -5293,7 +5299,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,7 +5347,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -5418,7 +5424,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5433,7 +5439,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5466,7 +5472,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -5481,7 +5487,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -5555,7 +5561,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5573,7 +5579,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5588,7 +5594,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5603,7 +5609,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,7 +5627,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -5636,7 +5642,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -5651,7 +5657,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -5728,7 +5734,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5743,7 +5749,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5776,7 +5782,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -5791,7 +5797,7 @@
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
